--- a/data/trans_orig/P80_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P80_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>391780</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>374367</v>
+        <v>373292</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>401626</v>
+        <v>401362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9607333815217692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9180321011166549</v>
+        <v>0.9153946523783767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9848769860931199</v>
+        <v>0.9842290993778628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>199</v>
@@ -762,19 +762,19 @@
         <v>349483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>337450</v>
+        <v>338045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>356545</v>
+        <v>356202</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.964058985062061</v>
+        <v>0.9640589850620608</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9308662160279593</v>
+        <v>0.9325070150841301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9835387251577753</v>
+        <v>0.9825930388737038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>365</v>
@@ -783,19 +783,19 @@
         <v>741263</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>722262</v>
+        <v>722812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>754179</v>
+        <v>753700</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9622984382830017</v>
+        <v>0.9622984382830015</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9376308637153576</v>
+        <v>0.9383451102565791</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.979065027449318</v>
+        <v>0.9784434236390904</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9820</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3070</v>
+        <v>3005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25385</v>
+        <v>28761</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02408087386980082</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007527957613477717</v>
+        <v>0.007369675832928082</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06224928688033673</v>
+        <v>0.07052862539779745</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>4353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12513</v>
+        <v>12012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01200873833683803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003576102359066263</v>
+        <v>0.003558971853864924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03451782151535907</v>
+        <v>0.033135719675744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>14173</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4866</v>
+        <v>5995</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30949</v>
+        <v>33031</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01839962620769401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006317224362315687</v>
+        <v>0.007783171739788036</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04017701386673048</v>
+        <v>0.04288090697371078</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>6193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1630</v>
+        <v>1730</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16441</v>
+        <v>17187</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01518574460843002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003998258897660692</v>
+        <v>0.004242900643119934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04031644543777829</v>
+        <v>0.04214608946809045</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13069</v>
+        <v>14912</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01169965858675249</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03605110383405932</v>
+        <v>0.04113432228361384</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -925,19 +925,19 @@
         <v>10434</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3547</v>
+        <v>3939</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23419</v>
+        <v>23381</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01354516345305113</v>
+        <v>0.01354516345305112</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004605290662020664</v>
+        <v>0.005113262217387015</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03040275309316177</v>
+        <v>0.03035334514723961</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7593</v>
+        <v>7518</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004156610661665556</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02094533235606985</v>
+        <v>0.02073777748445103</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7605</v>
+        <v>7773</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001956135643059672</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009873289132423062</v>
+        <v>0.01009062891662869</v>
       </c>
     </row>
     <row r="8">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10252</v>
+        <v>9868</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008076007352682997</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02828164358782288</v>
+        <v>0.02722129713767817</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9671</v>
+        <v>10126</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.003800636413193682</v>
+        <v>0.003800636413193681</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01255439847028299</v>
+        <v>0.01314563086045293</v>
       </c>
     </row>
     <row r="9">
@@ -1155,19 +1155,19 @@
         <v>457536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>440711</v>
+        <v>443722</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>466027</v>
+        <v>466197</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9594164771926372</v>
+        <v>0.9594164771926373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9241364349643636</v>
+        <v>0.9304498231281764</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.977221905063519</v>
+        <v>0.9775773741525022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>451</v>
@@ -1176,19 +1176,19 @@
         <v>491584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>482872</v>
+        <v>483569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>496214</v>
+        <v>496270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9831232259939419</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.965699345254462</v>
+        <v>0.9670926327801822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9923816255297387</v>
+        <v>0.9924945280213082</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>741</v>
@@ -1197,19 +1197,19 @@
         <v>949121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>934716</v>
+        <v>934619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>960423</v>
+        <v>959367</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9715505389892468</v>
+        <v>0.9715505389892469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9568045549166979</v>
+        <v>0.9567055686474604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9831194360177006</v>
+        <v>0.9820380027861474</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>6892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2528</v>
+        <v>2500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15956</v>
+        <v>14344</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01445138982311954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005301016785535975</v>
+        <v>0.005241340792406495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03345856823112591</v>
+        <v>0.03007774873181875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6750</v>
+        <v>6509</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.004031113113209006</v>
+        <v>0.004031113113209007</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01349948153843381</v>
+        <v>0.01301800062756207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1268,19 +1268,19 @@
         <v>8907</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3871</v>
+        <v>3589</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18173</v>
+        <v>17596</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009117875616023043</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003962461453937951</v>
+        <v>0.003673483274416473</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01860228729526972</v>
+        <v>0.01801149263710678</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>8386</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3188</v>
+        <v>2991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20279</v>
+        <v>19505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01758562730554191</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006684336672967771</v>
+        <v>0.006271669378501674</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04252262481462222</v>
+        <v>0.04090034563066156</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1321,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6454</v>
+        <v>6907</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.003579942868672523</v>
+        <v>0.003579942868672524</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01290786485042149</v>
+        <v>0.01381238432210768</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1339,19 +1339,19 @@
         <v>10176</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4323</v>
+        <v>4809</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21703</v>
+        <v>20935</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01041695808458851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004425153018360063</v>
+        <v>0.004922898227570112</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02221549629912843</v>
+        <v>0.02142938412216821</v>
       </c>
     </row>
     <row r="13">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13148</v>
+        <v>15784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008546505678701235</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02757021171922569</v>
+        <v>0.03309831236428278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13673</v>
+        <v>13894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00417206239592057</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01399622183701231</v>
+        <v>0.01422205667683385</v>
       </c>
     </row>
     <row r="14">
@@ -1444,19 +1444,19 @@
         <v>4633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12975</v>
+        <v>11757</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009265718024176622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002215399782667879</v>
+        <v>0.002186967313149114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02594830543010759</v>
+        <v>0.02351362210390436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1465,19 +1465,19 @@
         <v>4633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1132</v>
+        <v>1093</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12246</v>
+        <v>11340</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004742564914221018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001158843440089923</v>
+        <v>0.001119177312683548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01253488667917048</v>
+        <v>0.01160846600942799</v>
       </c>
     </row>
     <row r="15">
@@ -1569,19 +1569,19 @@
         <v>601605</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>591098</v>
+        <v>589412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>608995</v>
+        <v>608278</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9690220554870161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9520981451385482</v>
+        <v>0.9493821079883382</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9809258154456687</v>
+        <v>0.9797708998364744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>832</v>
@@ -1590,19 +1590,19 @@
         <v>611412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>604783</v>
+        <v>604051</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>616092</v>
+        <v>616211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9827585333625081</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9721021802669902</v>
+        <v>0.9709261710213208</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9902808113833154</v>
+        <v>0.9904711095455223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1361</v>
@@ -1611,19 +1611,19 @@
         <v>1213017</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1200658</v>
+        <v>1201740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1222226</v>
+        <v>1222174</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9758974911765104</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9659543906999437</v>
+        <v>0.9668245622743099</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9833065596462358</v>
+        <v>0.983264504612586</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>10952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5639</v>
+        <v>5587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19461</v>
+        <v>20482</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01764003072312029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009083279248101719</v>
+        <v>0.008999942287084053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03134609754932792</v>
+        <v>0.03299115400654042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1664,16 +1664,16 @@
         <v>1539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9218</v>
+        <v>10285</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.007350132290764359</v>
+        <v>0.00735013229076436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002474227188621315</v>
+        <v>0.002474179292330784</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01481654462851279</v>
+        <v>0.01653153102708299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1682,19 +1682,19 @@
         <v>15524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9080</v>
+        <v>9253</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24179</v>
+        <v>24636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01248969047110302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007304875281680689</v>
+        <v>0.007444573518233239</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01945262770380654</v>
+        <v>0.01981992630026025</v>
       </c>
     </row>
     <row r="18">
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8051</v>
+        <v>8183</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003672779800774902</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01296859246022252</v>
+        <v>0.01318059456001731</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1732,19 +1732,19 @@
         <v>2370</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6347</v>
+        <v>7112</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.003809389310546047</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001233470753562395</v>
+        <v>0.001237104229467067</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01020135108214283</v>
+        <v>0.01143187467319248</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1753,19 +1753,19 @@
         <v>4650</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10626</v>
+        <v>11044</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.003741156127480935</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001279067411414409</v>
+        <v>0.00127974566281602</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008549123584822413</v>
+        <v>0.008885008210323789</v>
       </c>
     </row>
     <row r="19">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8860</v>
+        <v>7589</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003854913636909962</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01427183184360772</v>
+        <v>0.01222310182570535</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7911</v>
+        <v>8666</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001925437169989974</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006364185294406161</v>
+        <v>0.006972014645314374</v>
       </c>
     </row>
     <row r="20">
@@ -1845,19 +1845,19 @@
         <v>3607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10243</v>
+        <v>9545</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005810220352178711</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001793105627482939</v>
+        <v>0.001784489811523931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01649928865203341</v>
+        <v>0.01537419418487771</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1866,19 +1866,19 @@
         <v>3784</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8362</v>
+        <v>9241</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006081945036181579</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002234987685729146</v>
+        <v>0.002239335563751694</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01344010728650196</v>
+        <v>0.01485379307868049</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1887,19 +1887,19 @@
         <v>7391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3180</v>
+        <v>3448</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14262</v>
+        <v>15026</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005946225054915726</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002558388052932748</v>
+        <v>0.002774291809897218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01147409542653733</v>
+        <v>0.01208875645913231</v>
       </c>
     </row>
     <row r="21">
@@ -1991,19 +1991,19 @@
         <v>682397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>672856</v>
+        <v>672573</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>688939</v>
+        <v>688832</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9765790335492764</v>
+        <v>0.9765790335492762</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9629238523980834</v>
+        <v>0.9625195596603257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.985941550969307</v>
+        <v>0.985787517715752</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1115</v>
@@ -2012,19 +2012,19 @@
         <v>720183</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>713672</v>
+        <v>712658</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>725165</v>
+        <v>724920</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9821599815352897</v>
+        <v>0.9821599815352899</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9732816309740949</v>
+        <v>0.9718983528919244</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9889547987799356</v>
+        <v>0.9886206017321433</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1762</v>
@@ -2033,19 +2033,19 @@
         <v>1402580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1391579</v>
+        <v>1392429</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1411633</v>
+        <v>1411281</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9794367356350183</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9717549032658208</v>
+        <v>0.9723480109309013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9857587385662971</v>
+        <v>0.9855125185928504</v>
       </c>
     </row>
     <row r="23">
@@ -2062,19 +2062,19 @@
         <v>11226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5888</v>
+        <v>6244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19518</v>
+        <v>19919</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01606523556947729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0084267607755003</v>
+        <v>0.008935262975593761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02793198273628946</v>
+        <v>0.02850619171059324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2083,19 +2083,19 @@
         <v>3333</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1238</v>
+        <v>1185</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7375</v>
+        <v>7244</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.004544894093105325</v>
+        <v>0.004544894093105326</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001688148671447518</v>
+        <v>0.001616206663075859</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01005820316849565</v>
+        <v>0.009878679716275457</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2104,19 +2104,19 @@
         <v>14558</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8567</v>
+        <v>8790</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>22863</v>
+        <v>22470</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01016629081170596</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00598217077809745</v>
+        <v>0.006137861345581771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01596568242314947</v>
+        <v>0.01569087573841325</v>
       </c>
     </row>
     <row r="24">
@@ -2133,19 +2133,19 @@
         <v>3352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8884</v>
+        <v>10072</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004797294087025289</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0015833424523364</v>
+        <v>0.00158050320862265</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01271408145858706</v>
+        <v>0.01441382070340538</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -2154,19 +2154,19 @@
         <v>4058</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1423</v>
+        <v>1496</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8415</v>
+        <v>9437</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.005533935921954166</v>
+        <v>0.005533935921954167</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001941217991884053</v>
+        <v>0.002040719831253009</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01147617854747386</v>
+        <v>0.01286966553737311</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2175,19 +2175,19 @@
         <v>7410</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3510</v>
+        <v>3514</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13793</v>
+        <v>13298</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005174488591148376</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002450924337869882</v>
+        <v>0.002453716968075808</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009632046186311801</v>
+        <v>0.009286086653162055</v>
       </c>
     </row>
     <row r="25">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5575</v>
+        <v>4901</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001325131129882664</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007977879944964699</v>
+        <v>0.007013246212899758</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2225,19 +2225,19 @@
         <v>2154</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5776</v>
+        <v>5756</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002936917412467029</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0009429047565903524</v>
+        <v>0.000936614479200656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007876772925147742</v>
+        <v>0.00784918911626792</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2246,19 +2246,19 @@
         <v>3079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>917</v>
+        <v>725</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7768</v>
+        <v>7205</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002150439846798669</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0006402038855872564</v>
+        <v>0.00050639690970204</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.005424361166065714</v>
+        <v>0.00503151295267137</v>
       </c>
     </row>
     <row r="26">
@@ -2278,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4608</v>
+        <v>4262</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.001233305664338502</v>
+        <v>0.001233305664338501</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0065945125068269</v>
+        <v>0.00609920639168648</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2296,19 +2296,19 @@
         <v>3537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7780</v>
+        <v>8473</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004824271037183594</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001922467441038625</v>
+        <v>0.001911039930565787</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01061014080475019</v>
+        <v>0.01155506901791518</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2317,19 +2317,19 @@
         <v>4399</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2087</v>
+        <v>1553</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9244</v>
+        <v>8902</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.003072045115328625</v>
+        <v>0.003072045115328624</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001457520541158124</v>
+        <v>0.001084721047720319</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006455278106406529</v>
+        <v>0.006216064190905613</v>
       </c>
     </row>
     <row r="27">
@@ -2421,19 +2421,19 @@
         <v>602009</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>595763</v>
+        <v>596050</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>605826</v>
+        <v>605673</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9895649372613045</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9792981914784651</v>
+        <v>0.9797693816355622</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9958396512471042</v>
+        <v>0.9955876993622187</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>992</v>
@@ -2442,19 +2442,19 @@
         <v>602209</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>597023</v>
+        <v>596874</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>605162</v>
+        <v>605441</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9902051626987932</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.981678184530919</v>
+        <v>0.981433339029252</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9950601710934891</v>
+        <v>0.9955185351729336</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1647</v>
@@ -2463,19 +2463,19 @@
         <v>1204218</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1196742</v>
+        <v>1197251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1209181</v>
+        <v>1209246</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9898849996373654</v>
+        <v>0.9898849996373656</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9837399969025996</v>
+        <v>0.9841581231013862</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9939643817817668</v>
+        <v>0.994018150654757</v>
       </c>
     </row>
     <row r="29">
@@ -2495,16 +2495,16 @@
         <v>822</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8007</v>
+        <v>8175</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004342596866590939</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001351241821504516</v>
+        <v>0.001351436449161998</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01316121185354882</v>
+        <v>0.0134378341664153</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2513,19 +2513,19 @@
         <v>1998</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5597</v>
+        <v>5560</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.003285838666013071</v>
+        <v>0.003285838666013072</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0009347937511389139</v>
+        <v>0.0009284864738162174</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.009202695684732518</v>
+        <v>0.009142996558398109</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2534,19 +2534,19 @@
         <v>4640</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1756</v>
+        <v>1692</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9853</v>
+        <v>9676</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003814300862099488</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001443244196528605</v>
+        <v>0.0013910459008333</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008099676300370695</v>
+        <v>0.007954103810936194</v>
       </c>
     </row>
     <row r="30">
@@ -2563,19 +2563,19 @@
         <v>2706</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7966</v>
+        <v>8201</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004448260609202353</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0010835212937381</v>
+        <v>0.001084775056361952</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01309501920911111</v>
+        <v>0.01348008494273093</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2584,19 +2584,19 @@
         <v>2576</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6084</v>
+        <v>6473</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.004236471926891816</v>
+        <v>0.004236471926891818</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001096571625033697</v>
+        <v>0.001094620007809003</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01000400438451592</v>
+        <v>0.01064347355243867</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2605,19 +2605,19 @@
         <v>5283</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2225</v>
+        <v>2572</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10879</v>
+        <v>11121</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.004342382921572407</v>
+        <v>0.004342382921572409</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001828906671304491</v>
+        <v>0.002114028184863487</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008942496161562759</v>
+        <v>0.009142030403984208</v>
       </c>
     </row>
     <row r="31">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5025</v>
+        <v>5221</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001644205262902413</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.008259667931015532</v>
+        <v>0.008582599993558392</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4069</v>
+        <v>4085</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001117744641149802</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.006690037240530169</v>
+        <v>0.006716164989691301</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6067</v>
+        <v>5669</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.001381016349069616</v>
+        <v>0.001381016349069617</v>
       </c>
       <c r="V31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.004986894214364043</v>
+        <v>0.004660104745102488</v>
       </c>
     </row>
     <row r="32">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3501</v>
+        <v>3532</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.001154782067151997</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005757115077290173</v>
+        <v>0.00580722695901664</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2742,16 +2742,16 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3534</v>
+        <v>3549</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.0005773002298928706</v>
+        <v>0.0005773002298928707</v>
       </c>
       <c r="V32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.002905374828766715</v>
+        <v>0.002917326829841559</v>
       </c>
     </row>
     <row r="33">
@@ -2843,19 +2843,19 @@
         <v>405321</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>402150</v>
+        <v>401939</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>406580</v>
+        <v>406577</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9956788610645463</v>
+        <v>0.9956788610645464</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9878894896138969</v>
+        <v>0.9873701028797892</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9987713579214018</v>
+        <v>0.9987640320747917</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>818</v>
@@ -2864,19 +2864,19 @@
         <v>434099</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>430823</v>
+        <v>430998</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>435970</v>
+        <v>435836</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9937851781236035</v>
+        <v>0.9937851781236036</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9862836818624595</v>
+        <v>0.9866854627021656</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9980678507492745</v>
+        <v>0.997760402409588</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1385</v>
@@ -2885,19 +2885,19 @@
         <v>839419</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>834884</v>
+        <v>835525</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>841853</v>
+        <v>841874</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9946986583776293</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9893248987448884</v>
+        <v>0.9900836892460806</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9975831007294901</v>
+        <v>0.9976069502996411</v>
       </c>
     </row>
     <row r="35">
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3287</v>
+        <v>3942</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001712771247615952</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.008075635253844728</v>
+        <v>0.009684765151038695</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2935,19 +2935,19 @@
         <v>1921</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5191</v>
+        <v>5066</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.004398742739580516</v>
+        <v>0.004398742739580517</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00139738308515667</v>
+        <v>0.001411076036554553</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01188305352205347</v>
+        <v>0.01159710295158859</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -2956,19 +2956,19 @@
         <v>2619</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6485</v>
+        <v>6537</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.003103076042829312</v>
+        <v>0.003103076042829313</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0007743433888591125</v>
+        <v>0.0008278144422966645</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007685204584414598</v>
+        <v>0.007746103526141465</v>
       </c>
     </row>
     <row r="36">
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2816</v>
+        <v>2837</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001375540723072911</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.006918402148017075</v>
+        <v>0.006968291179261661</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2528</v>
+        <v>2482</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001816079136816095</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.005788370789992934</v>
+        <v>0.00568231523652103</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -3027,19 +3027,19 @@
         <v>1353</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4106</v>
+        <v>3747</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0016035709426546</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0004301663414527239</v>
+        <v>0.0004272376522423246</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004865011661217549</v>
+        <v>0.004440367214340019</v>
       </c>
     </row>
     <row r="37">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3051</v>
+        <v>2530</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.001232826964764826</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.007495406784918552</v>
+        <v>0.006215231042192091</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2417</v>
+        <v>2816</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.000594694636886983</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.002863786991021938</v>
+        <v>0.003337044772355633</v>
       </c>
     </row>
     <row r="39">
@@ -3254,7 +3254,7 @@
         <v>462835</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>459439</v>
+        <v>460029</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>464013</v>
@@ -3263,7 +3263,7 @@
         <v>0.9974616282692982</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9901419494764367</v>
+        <v>0.9914149225055509</v>
       </c>
       <c r="P40" s="6" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>773033</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>770606</v>
+        <v>770539</v>
       </c>
       <c r="T40" s="5" t="n">
         <v>774211</v>
@@ -3284,7 +3284,7 @@
         <v>0.9984786617699424</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9953439342965308</v>
+        <v>0.9952569109276501</v>
       </c>
       <c r="W40" s="6" t="n">
         <v>1</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>3112</v>
+        <v>3554</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001326551245511603</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.00670717339143987</v>
+        <v>0.007659766077954921</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1</v>
@@ -3341,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3488</v>
+        <v>3483</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.000795050267664823</v>
+        <v>0.0007950502676648229</v>
       </c>
       <c r="V41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004504702530506979</v>
+        <v>0.004499177586102656</v>
       </c>
     </row>
     <row r="42">
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3606</v>
+        <v>3673</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001211820485190229</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.007771542631841955</v>
+        <v>0.007915129200789427</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2853</v>
+        <v>2843</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.0007262879623927658</v>
+        <v>0.0007262879623927657</v>
       </c>
       <c r="V42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.00368552196120982</v>
+        <v>0.003672554450359277</v>
       </c>
     </row>
     <row r="43">
@@ -3599,19 +3599,19 @@
         <v>3450847</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3422523</v>
+        <v>3425809</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>3468620</v>
+        <v>3469201</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.9775995414326285</v>
+        <v>0.9775995414326284</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.9695755160642391</v>
+        <v>0.9705064450269529</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.9826345329267283</v>
+        <v>0.982798949537516</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5285</v>
@@ -3620,19 +3620,19 @@
         <v>3671806</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3656159</v>
+        <v>3655325</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>3685058</v>
+        <v>3685651</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.9852089259538656</v>
+        <v>0.9852089259538657</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.9810105273685163</v>
+        <v>0.9807867969010827</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.9887646652867622</v>
+        <v>0.9889239506382119</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>8597</v>
@@ -3641,19 +3641,19 @@
         <v>7122653</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>7091463</v>
+        <v>7093520</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>7144152</v>
+        <v>7145405</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.9815075251108033</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.9772095972819869</v>
+        <v>0.9774930472594223</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.9844701111575729</v>
+        <v>0.9846427935588827</v>
       </c>
     </row>
     <row r="47">
@@ -3670,19 +3670,19 @@
         <v>42228</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>29847</v>
+        <v>28545</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>61235</v>
+        <v>60544</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01196293980676486</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.008455455616585825</v>
+        <v>0.008086588691028537</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01734736081220248</v>
+        <v>0.01715180240209618</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>23</v>
@@ -3691,19 +3691,19 @@
         <v>18810</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>11976</v>
+        <v>11834</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>28968</v>
+        <v>28125</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.005046962074702111</v>
+        <v>0.005046962074702112</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.003213416144292593</v>
+        <v>0.003175260156435167</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.007772715917932716</v>
+        <v>0.007546324902780087</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>56</v>
@@ -3712,19 +3712,19 @@
         <v>61038</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>44960</v>
+        <v>45548</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>79906</v>
+        <v>82262</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.00841107197565579</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006195462254431882</v>
+        <v>0.00627660604319714</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01101113970426712</v>
+        <v>0.01133578924136771</v>
       </c>
     </row>
     <row r="48">
@@ -3741,19 +3741,19 @@
         <v>23478</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14520</v>
+        <v>13368</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>40507</v>
+        <v>37308</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.006651006710455616</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.004113375300515328</v>
+        <v>0.003787006319815794</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01147519604403709</v>
+        <v>0.01056918921458934</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>20</v>
@@ -3762,19 +3762,19 @@
         <v>16391</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>9706</v>
+        <v>10366</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>27622</v>
+        <v>27201</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.004398041057117332</v>
+        <v>0.004398041057117333</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.002604322315286583</v>
+        <v>0.002781302815450121</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.007411433846501113</v>
+        <v>0.007298505742108134</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>37</v>
@@ -3783,19 +3783,19 @@
         <v>39869</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>28349</v>
+        <v>27635</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>57240</v>
+        <v>57280</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.005493941644790758</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.003906571270198778</v>
+        <v>0.003808153338492096</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.007887787098319433</v>
+        <v>0.007893175822101174</v>
       </c>
     </row>
     <row r="49">
@@ -3812,19 +3812,19 @@
         <v>8395</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>3358</v>
+        <v>3281</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>19438</v>
+        <v>19154</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.002378307963427006</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.0009512454595470477</v>
+        <v>0.0009294522830991007</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.005506665201839163</v>
+        <v>0.005426307512649558</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>5</v>
@@ -3833,19 +3833,19 @@
         <v>4340</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1441</v>
+        <v>1411</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>10201</v>
+        <v>10290</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.001164532218172593</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.000386772617651455</v>
+        <v>0.0003785491029034801</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.002737090911812391</v>
+        <v>0.002761041713226333</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>11</v>
@@ -3854,19 +3854,19 @@
         <v>12735</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>6783</v>
+        <v>6317</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>24514</v>
+        <v>23339</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.001754944038502432</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.000934638553266774</v>
+        <v>0.0008705555581036832</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.003378087243042077</v>
+        <v>0.003216192735287559</v>
       </c>
     </row>
     <row r="50">
@@ -3883,19 +3883,19 @@
         <v>4971</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1882</v>
+        <v>1606</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>11954</v>
+        <v>11720</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.001408204086723986</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0005331816162734632</v>
+        <v>0.0004548495407707768</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.003386528741012892</v>
+        <v>0.003320133759682088</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>17</v>
@@ -3904,19 +3904,19 @@
         <v>15584</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>9182</v>
+        <v>9125</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>24088</v>
+        <v>25293</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.004181538696142368</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.002463615356653859</v>
+        <v>0.002448491106981986</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.00646324972179552</v>
+        <v>0.006786529315539046</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>22</v>
@@ -3925,19 +3925,19 @@
         <v>20555</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>12960</v>
+        <v>12662</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>31340</v>
+        <v>32168</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.002832517230247742</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.001785853229352649</v>
+        <v>0.001744882856041986</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.00431870334488344</v>
+        <v>0.004432749182390588</v>
       </c>
     </row>
     <row r="51">
